--- a/survey_question_to_db/question_list.xlsx
+++ b/survey_question_to_db/question_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\project1\survey_question_to_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ADE1B0-6680-4DCA-AE56-0F175B986E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF6EDF3-D503-47C5-AF53-5D443BBCF56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CB90CA9-326C-44AC-B80A-E2BBE9E01591}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7CB90CA9-326C-44AC-B80A-E2BBE9E01591}"/>
   </bookViews>
   <sheets>
     <sheet name="자체제작" sheetId="3" r:id="rId1"/>
@@ -503,11 +503,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나의 피부톤은 어떻다고 생각하나요?
-(관련성에 대한 의문이 잔재)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나는 얼굴에 주름이 많은편이다 라고 생각하시나요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -606,6 +601,10 @@
   </si>
   <si>
     <t>그렇지않아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 피부톤은 어떻다고 생각하나요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1192,9 +1191,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9C52C4-5657-4513-8AFC-B7F2A6F2679C}">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1211,7 +1210,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>19</v>
@@ -1280,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
     </row>
@@ -1291,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -1306,10 +1305,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -1357,7 +1356,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -1724,7 +1723,7 @@
         <v>11</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>69</v>
@@ -1733,9 +1732,7 @@
         <v>4</v>
       </c>
       <c r="J42" s="8"/>
-      <c r="K42" s="8">
-        <v>4</v>
-      </c>
+      <c r="K42" s="8"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
@@ -1747,9 +1744,7 @@
         <v>2</v>
       </c>
       <c r="J43" s="8"/>
-      <c r="K43" s="8">
-        <v>2</v>
-      </c>
+      <c r="K43" s="8"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
@@ -1760,9 +1755,7 @@
       <c r="H44" s="1">
         <v>2</v>
       </c>
-      <c r="J44" s="8">
-        <v>2</v>
-      </c>
+      <c r="J44" s="8"/>
       <c r="K44" s="8"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -1774,9 +1767,7 @@
       <c r="H45" s="1">
         <v>4</v>
       </c>
-      <c r="J45" s="8">
-        <v>4</v>
-      </c>
+      <c r="J45" s="8"/>
       <c r="K45" s="8"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -1989,10 +1980,10 @@
         <v>16</v>
       </c>
       <c r="B62" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="K62" s="1">
         <v>4</v>
@@ -2002,7 +1993,7 @@
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K63" s="1">
         <v>2</v>
@@ -2012,7 +2003,7 @@
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J64" s="1">
         <v>2</v>
@@ -2022,7 +2013,7 @@
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J65" s="1">
         <v>4</v>
@@ -2033,10 +2024,10 @@
         <v>17</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K66" s="1">
         <v>4</v>
@@ -2046,7 +2037,7 @@
       <c r="A67" s="10"/>
       <c r="B67" s="12"/>
       <c r="C67" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K67" s="1">
         <v>2</v>
@@ -2056,7 +2047,7 @@
       <c r="A68" s="10"/>
       <c r="B68" s="12"/>
       <c r="C68" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J68" s="1">
         <v>2</v>
@@ -2066,7 +2057,7 @@
       <c r="A69" s="10"/>
       <c r="B69" s="13"/>
       <c r="C69" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J69" s="1">
         <v>4</v>
@@ -2077,10 +2068,10 @@
         <v>18</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K70" s="1">
         <v>4</v>
@@ -2090,7 +2081,7 @@
       <c r="A71" s="10"/>
       <c r="B71" s="12"/>
       <c r="C71" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K71" s="1">
         <v>2</v>
@@ -2100,7 +2091,7 @@
       <c r="A72" s="10"/>
       <c r="B72" s="12"/>
       <c r="C72" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J72" s="1">
         <v>2</v>
@@ -2110,7 +2101,7 @@
       <c r="A73" s="10"/>
       <c r="B73" s="13"/>
       <c r="C73" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J73" s="1">
         <v>4</v>
@@ -2121,10 +2112,10 @@
         <v>19</v>
       </c>
       <c r="B74" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="G74" s="8">
         <v>4</v>
@@ -2137,7 +2128,7 @@
       <c r="A75" s="10"/>
       <c r="B75" s="12"/>
       <c r="C75" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K75" s="1">
         <v>2</v>
@@ -2147,7 +2138,7 @@
       <c r="A76" s="10"/>
       <c r="B76" s="12"/>
       <c r="C76" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F76" s="8">
         <v>4</v>
@@ -2160,7 +2151,7 @@
       <c r="A77" s="10"/>
       <c r="B77" s="13"/>
       <c r="C77" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J77" s="1">
         <v>4</v>
@@ -2171,10 +2162,10 @@
         <v>20</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1">
         <v>4</v>
@@ -2187,7 +2178,7 @@
       <c r="A79" s="10"/>
       <c r="B79" s="12"/>
       <c r="C79" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I79" s="1">
         <v>2</v>
@@ -2200,7 +2191,7 @@
       <c r="A80" s="10"/>
       <c r="B80" s="12"/>
       <c r="C80" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H80" s="1">
         <v>2</v>
@@ -2213,7 +2204,7 @@
       <c r="A81" s="10"/>
       <c r="B81" s="13"/>
       <c r="C81" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H81" s="1">
         <v>4</v>
